--- a/data/testdata/all_cases.xlsx
+++ b/data/testdata/all_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/juan_russy_urosario_edu_co/Documents/initial_graph_repository/namegraph/data/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="749" documentId="8_{80136A59-A22F-4BFD-841B-785D5A5637AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DACC0369-BA2C-40D6-8E8A-2C06A3498D61}"/>
+  <xr:revisionPtr revIDLastSave="800" documentId="8_{80136A59-A22F-4BFD-841B-785D5A5637AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D490BE-C711-452B-BCCE-A623E2E078F1}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6855" yWindow="1785" windowWidth="21600" windowHeight="11505" activeTab="6" xr2:uid="{181804AA-FA84-4F41-B5A6-3D72BBD7180C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{181804AA-FA84-4F41-B5A6-3D72BBD7180C}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_CASES" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="284">
   <si>
     <t>cedula</t>
   </si>
@@ -153,9 +153,6 @@
     <t>BOUVIER CLANCY</t>
   </si>
   <si>
-    <t>GURNEY JACQUELINE</t>
-  </si>
-  <si>
     <t>SIMPSON BART</t>
   </si>
   <si>
@@ -258,9 +255,6 @@
     <t>DEL BOSQUE RODOLFO</t>
   </si>
   <si>
-    <t>ZULETA MONICA</t>
-  </si>
-  <si>
     <t>MARGARITA GONZALES</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>DEL PINO FELIPE</t>
   </si>
   <si>
-    <t>JUANA DEL ARCO</t>
-  </si>
-  <si>
     <t>DE LA VEGA CLEOTILDE</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>MARCOS DEL RIO</t>
   </si>
   <si>
-    <t>CONSUELO DE LA ESPRIELLA</t>
-  </si>
-  <si>
     <t>SALAZAR KAREN</t>
   </si>
   <si>
@@ -324,24 +312,15 @@
     <t>FEDERICO DE VIGO</t>
   </si>
   <si>
-    <t>CONSUELO DEL ROZAL</t>
-  </si>
-  <si>
     <t>VIUDO</t>
   </si>
   <si>
     <t>FERNANDO SALAZAR</t>
   </si>
   <si>
-    <t>CATALINA DE LA OSSA</t>
-  </si>
-  <si>
     <t>DEL ROZAL CARLOS</t>
   </si>
   <si>
-    <t>JULIETA DE LA GUARDIA</t>
-  </si>
-  <si>
     <t>LUCERO DE VIGO</t>
   </si>
   <si>
@@ -351,9 +330,6 @@
     <t>JAIME YEPES</t>
   </si>
   <si>
-    <t>DOLORES DE LA ROCHE</t>
-  </si>
-  <si>
     <t>TOMAS DE LOS RIOS</t>
   </si>
   <si>
@@ -414,9 +390,6 @@
     <t>PAULA DE LA BARRERA</t>
   </si>
   <si>
-    <t>DE LA MORA CARLOTA</t>
-  </si>
-  <si>
     <t>MARTIN DEL NIÑO JESUS</t>
   </si>
   <si>
@@ -429,45 +402,24 @@
     <t>MARIANA SALAZAR</t>
   </si>
   <si>
-    <t>LEONOR GARCIA</t>
-  </si>
-  <si>
     <t>ROBERTO GARCIA</t>
   </si>
   <si>
-    <t>LUZ GONZALES</t>
-  </si>
-  <si>
-    <t>ANGELA RODRIGUEZ</t>
-  </si>
-  <si>
     <t>CECILIA DE LA CRUZ</t>
   </si>
   <si>
-    <t>MARTINEZ MARIA JOSE</t>
-  </si>
-  <si>
     <t>SALAZAR FERNANDO</t>
   </si>
   <si>
-    <t>REMEDIOS DEL CORAL</t>
-  </si>
-  <si>
     <t>DE LA PAZ DE DE LA BARRERA LUZ</t>
   </si>
   <si>
     <t>JUAN DE LA RENTA</t>
   </si>
   <si>
-    <t>MARIA GONZALEZ</t>
-  </si>
-  <si>
     <t>CARLOS DE LA CALLE</t>
   </si>
   <si>
-    <t>FEDERICA DE LA PARRA</t>
-  </si>
-  <si>
     <t>SIMPSON OLSEN HOMER JAY (10)</t>
   </si>
   <si>
@@ -702,18 +654,6 @@
     <t>DE LA CUEVA TATIANA</t>
   </si>
   <si>
-    <t>GARCIA LEONOR</t>
-  </si>
-  <si>
-    <t>DEL ARCO JUANA</t>
-  </si>
-  <si>
-    <t>DE LA OSSA CATALINA</t>
-  </si>
-  <si>
-    <t>DE LA GUARDIA JULIETA</t>
-  </si>
-  <si>
     <t>SALAZAR MARIANA</t>
   </si>
   <si>
@@ -726,27 +666,6 @@
     <t>DE LA PAZ LUZ</t>
   </si>
   <si>
-    <t>GONZALES MARGARITA</t>
-  </si>
-  <si>
-    <t>GONZALEZ MARIA</t>
-  </si>
-  <si>
-    <t>DEL CORAL REMEDIOS</t>
-  </si>
-  <si>
-    <t>DEL ROZAL CONSUELO</t>
-  </si>
-  <si>
-    <t>DE LA ROCHE DOLORES</t>
-  </si>
-  <si>
-    <t>DE LA ESPRIELLA CONSUELO</t>
-  </si>
-  <si>
-    <t>DE LA PARRA FEDERICA</t>
-  </si>
-  <si>
     <t>PEREZ ROSA</t>
   </si>
   <si>
@@ -759,18 +678,6 @@
     <t>DE GONZALES MARGARITA</t>
   </si>
   <si>
-    <t>RODRIGUEZ ANGELA</t>
-  </si>
-  <si>
-    <t>GONZALES LUZ</t>
-  </si>
-  <si>
-    <t>JACQUELINE GURNEY</t>
-  </si>
-  <si>
-    <t>MONICA ZULETA</t>
-  </si>
-  <si>
     <t>MONA OLSEN</t>
   </si>
   <si>
@@ -795,9 +702,6 @@
     <t>MARGARITA GONZALES DE DEL VALLE</t>
   </si>
   <si>
-    <t>MARIA JOSE MARTINEZ</t>
-  </si>
-  <si>
     <t>MARJORIE BOUVIER</t>
   </si>
   <si>
@@ -877,6 +781,117 @@
   </si>
   <si>
     <t>DE LA BARRERA DE DEL NIÑO JESUS JOSEFA</t>
+  </si>
+  <si>
+    <t>GURNEY DE BOUVIER JACQUELINE</t>
+  </si>
+  <si>
+    <t>ZULETA DE DEL BOSQUE MONICA</t>
+  </si>
+  <si>
+    <t>DEL ARCO DE SUAREZ JUANA</t>
+  </si>
+  <si>
+    <t>DE LA ROSA DE DEL CORRAL VALENTINA</t>
+  </si>
+  <si>
+    <t>DE VIGO DE DE LA HOZ LUCERO</t>
+  </si>
+  <si>
+    <t>DE LA OSSA DE SALAZAR CATALINA</t>
+  </si>
+  <si>
+    <t>DE LA GUARDIA DE DEL ROZAL JULIETA</t>
+  </si>
+  <si>
+    <t>BOUVIER DE SIMPSON MARGE</t>
+  </si>
+  <si>
+    <t>GONZALEZ DE DE LA RENTA MARIA</t>
+  </si>
+  <si>
+    <t>DEL CORAL DE SALAZAR REMEDIOS</t>
+  </si>
+  <si>
+    <t>DEL ROZAL DE DE VIGO CONSUELO</t>
+  </si>
+  <si>
+    <t>DE LA ROCHE DE YEPES DOLORES</t>
+  </si>
+  <si>
+    <t>DE LA ESPRIELLA DE DEL RIO CONSUELO</t>
+  </si>
+  <si>
+    <t>DE LA PARRA DE DE LA CALLE FEDERICA</t>
+  </si>
+  <si>
+    <t>DE LA MORA DE DE LA BARRERA CARLOTA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ DE DE LA PAZ ANGELA</t>
+  </si>
+  <si>
+    <t>GONZALES DE DEL VALLE LUZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ DE DE LA CRUZ MARIA JOSE</t>
+  </si>
+  <si>
+    <t>JACQUELINE GURNEY DE BOUVIER</t>
+  </si>
+  <si>
+    <t>MONICA ZULETA DE DEL BOSQUE</t>
+  </si>
+  <si>
+    <t>LEONOR GARCIA DE DE LA MORA</t>
+  </si>
+  <si>
+    <t>JUANA DEL ARCO DE SUAREZ</t>
+  </si>
+  <si>
+    <t>VALENTINA DE LA ROSA DE DEL CORRAL</t>
+  </si>
+  <si>
+    <t>CATALINA DE LA OSSA DE SALAZAR</t>
+  </si>
+  <si>
+    <t>JULIETA DE LA GUARDIA DE DEL ROZAL</t>
+  </si>
+  <si>
+    <t>CARLOTA DE LA MORA DE DE LA BARRERA</t>
+  </si>
+  <si>
+    <t>MARGE BOUVIER DE SIMPSON</t>
+  </si>
+  <si>
+    <t>MARIA GONZALEZ DE DE LA RENTA</t>
+  </si>
+  <si>
+    <t>REMEDIOS DEL CORAL DE SALAZAR</t>
+  </si>
+  <si>
+    <t>CONSUELO DEL ROZAL DE DE VIGO</t>
+  </si>
+  <si>
+    <t>LUCERO DE VIGO DE DE LA HOZ</t>
+  </si>
+  <si>
+    <t>DOLORES DE LA ROCHE DE YEPEZ</t>
+  </si>
+  <si>
+    <t>CONSUELO DE LA ESPRIELLA DE DEL RIO</t>
+  </si>
+  <si>
+    <t>FEDERICA DE LA PARRA DE DE LA CALLE</t>
+  </si>
+  <si>
+    <t>ANGELA RODRIGUEZ DE DE LA PAZ</t>
+  </si>
+  <si>
+    <t>LUZ GONZALES DE GARCIA</t>
+  </si>
+  <si>
+    <t>MARIA JOSE MARTINEZ DE DE LA CRUZ</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A0D0B-AFBE-4BC1-B10F-8C3D3610350B}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G97" sqref="G1:W97"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W97" sqref="G1:W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,10 +1913,10 @@
         <v>19</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D1" s="64" t="s">
         <v>22</v>
@@ -2007,7 +2022,7 @@
         <v>36</v>
       </c>
       <c r="P2" s="61" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="Q2" s="61">
         <v>10</v>
@@ -2050,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="31" t="s">
         <v>34</v>
@@ -2059,7 +2074,7 @@
         <v>11951</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="31" t="s">
@@ -2067,10 +2082,10 @@
       </c>
       <c r="N3" s="31"/>
       <c r="O3" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P3" s="31" t="s">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
@@ -2111,7 +2126,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>34</v>
@@ -2120,7 +2135,7 @@
         <v>21614</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L4" s="33"/>
       <c r="M4" s="33" t="s">
@@ -2128,10 +2143,10 @@
       </c>
       <c r="N4" s="33"/>
       <c r="O4" s="33" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="33">
         <v>18</v>
@@ -2176,7 +2191,7 @@
         <v>4</v>
       </c>
       <c r="H5" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>34</v>
@@ -2185,7 +2200,7 @@
         <v>17797</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L5" s="31"/>
       <c r="M5" s="31" t="s">
@@ -2193,10 +2208,10 @@
       </c>
       <c r="N5" s="31"/>
       <c r="O5" s="31" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="P5" s="31" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="31">
         <v>14</v>
@@ -2239,7 +2254,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="29" t="s">
         <v>34</v>
@@ -2248,7 +2263,7 @@
         <v>30992</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L6" s="29"/>
       <c r="M6" s="29" t="s">
@@ -2256,10 +2271,10 @@
       </c>
       <c r="N6" s="29"/>
       <c r="O6" s="29" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="Q6" s="29">
         <v>37</v>
@@ -2306,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I7" s="35" t="s">
         <v>34</v>
@@ -2315,7 +2330,7 @@
         <v>34755</v>
       </c>
       <c r="K7" s="35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L7" s="35"/>
       <c r="M7" s="35" t="s">
@@ -2323,10 +2338,10 @@
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P7" s="35" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="35">
         <v>30</v>
@@ -2373,7 +2388,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I8" s="35" t="s">
         <v>34</v>
@@ -2382,18 +2397,18 @@
         <v>17989</v>
       </c>
       <c r="K8" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L8" s="35"/>
       <c r="M8" s="35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N8" s="35"/>
       <c r="O8" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P8" s="35" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="35"/>
       <c r="R8" s="35"/>
@@ -2434,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="I9" s="35" t="s">
         <v>34</v>
@@ -2443,18 +2458,18 @@
         <v>15930</v>
       </c>
       <c r="K9" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N9" s="35"/>
       <c r="O9" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P9" s="35" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q9" s="35"/>
       <c r="R9" s="35"/>
@@ -2495,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I10" s="33" t="s">
         <v>34</v>
@@ -2504,7 +2519,7 @@
         <v>31791</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L10" s="33"/>
       <c r="M10" s="33" t="s">
@@ -2512,10 +2527,10 @@
       </c>
       <c r="N10" s="33"/>
       <c r="O10" s="33" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="33">
         <v>17</v>
@@ -2625,7 +2640,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I12" s="29" t="s">
         <v>27</v>
@@ -2634,7 +2649,7 @@
         <v>20896</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29" t="s">
@@ -2642,10 +2657,10 @@
       </c>
       <c r="N12" s="29"/>
       <c r="O12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="Q12" s="29">
         <v>31</v>
@@ -2688,7 +2703,7 @@
         <v>12</v>
       </c>
       <c r="H13" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I13" s="33" t="s">
         <v>27</v>
@@ -2697,7 +2712,7 @@
         <v>32410</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L13" s="33"/>
       <c r="M13" s="33" t="s">
@@ -2705,10 +2720,10 @@
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="33" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="33">
         <v>37</v>
@@ -2753,7 +2768,7 @@
         <v>13</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I14" s="29" t="s">
         <v>34</v>
@@ -2764,14 +2779,14 @@
       <c r="K14" s="29"/>
       <c r="L14" s="29"/>
       <c r="M14" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N14" s="29"/>
       <c r="O14" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="29"/>
       <c r="R14" s="29">
@@ -2814,7 +2829,7 @@
         <v>14</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I15" s="31" t="s">
         <v>27</v>
@@ -2823,7 +2838,7 @@
         <v>17403</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31" t="s">
@@ -2831,10 +2846,10 @@
       </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="Q15" s="31">
         <v>4</v>
@@ -2877,7 +2892,7 @@
         <v>15</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I16" s="31" t="s">
         <v>27</v>
@@ -2886,7 +2901,7 @@
         <v>27272</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31" t="s">
@@ -2894,10 +2909,10 @@
       </c>
       <c r="N16" s="31"/>
       <c r="O16" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P16" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="31">
         <v>20</v>
@@ -2944,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I17" s="29" t="s">
         <v>27</v>
@@ -2953,7 +2968,7 @@
         <v>21489</v>
       </c>
       <c r="K17" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L17" s="29"/>
       <c r="M17" s="29" t="s">
@@ -2961,10 +2976,10 @@
       </c>
       <c r="N17" s="29"/>
       <c r="O17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="29" t="s">
         <v>58</v>
-      </c>
-      <c r="P17" s="29" t="s">
-        <v>59</v>
       </c>
       <c r="Q17" s="29">
         <v>48</v>
@@ -3007,7 +3022,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>27</v>
@@ -3016,7 +3031,7 @@
         <v>31826</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L18" s="33"/>
       <c r="M18" s="33" t="s">
@@ -3024,10 +3039,10 @@
       </c>
       <c r="N18" s="33"/>
       <c r="O18" s="33" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="Q18" s="33">
         <v>9</v>
@@ -3072,7 +3087,7 @@
         <v>18</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I19" s="33" t="s">
         <v>27</v>
@@ -3081,7 +3096,7 @@
         <v>22071</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L19" s="33"/>
       <c r="M19" s="33" t="s">
@@ -3089,10 +3104,10 @@
       </c>
       <c r="N19" s="33"/>
       <c r="O19" s="33" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="P19" s="33" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="Q19" s="33">
         <v>3</v>
@@ -3137,7 +3152,7 @@
         <v>19</v>
       </c>
       <c r="H20" s="29" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="I20" s="29" t="s">
         <v>34</v>
@@ -3146,18 +3161,18 @@
         <v>30564</v>
       </c>
       <c r="K20" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L20" s="29"/>
       <c r="M20" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N20" s="29"/>
       <c r="O20" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P20" s="29" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="Q20" s="29">
         <v>28</v>
@@ -3204,7 +3219,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I21" s="31" t="s">
         <v>34</v>
@@ -3213,7 +3228,7 @@
         <v>28462</v>
       </c>
       <c r="K21" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31" t="s">
@@ -3221,10 +3236,10 @@
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P21" s="31" t="s">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="31">
         <v>15</v>
@@ -3271,7 +3286,7 @@
         <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>34</v>
@@ -3282,14 +3297,14 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -3328,7 +3343,7 @@
         <v>22</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="I23" s="33" t="s">
         <v>34</v>
@@ -3339,14 +3354,14 @@
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
       <c r="M23" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N23" s="33"/>
       <c r="O23" s="33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P23" s="33" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="Q23" s="33"/>
       <c r="R23" s="33"/>
@@ -3387,7 +3402,7 @@
         <v>23</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I24" s="35" t="s">
         <v>34</v>
@@ -3396,7 +3411,7 @@
         <v>25267</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L24" s="35"/>
       <c r="M24" s="35" t="s">
@@ -3404,10 +3419,10 @@
       </c>
       <c r="N24" s="35"/>
       <c r="O24" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P24" s="35" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Q24" s="35">
         <v>42</v>
@@ -3452,14 +3467,14 @@
         <v>24</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="I25" s="35"/>
       <c r="J25" s="36">
         <v>34755</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L25" s="35"/>
       <c r="M25" s="35" t="s">
@@ -3467,10 +3482,10 @@
       </c>
       <c r="N25" s="35"/>
       <c r="O25" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P25" s="35" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="Q25" s="35">
         <v>47</v>
@@ -3517,7 +3532,7 @@
         <v>25</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="I26" s="35" t="s">
         <v>34</v>
@@ -3526,7 +3541,7 @@
         <v>34380</v>
       </c>
       <c r="K26" s="35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35" t="s">
@@ -3534,10 +3549,10 @@
       </c>
       <c r="N26" s="35"/>
       <c r="O26" s="35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P26" s="35" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="Q26" s="35">
         <v>33</v>
@@ -3580,7 +3595,7 @@
         <v>26</v>
       </c>
       <c r="H27" s="31" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I27" s="31" t="s">
         <v>34</v>
@@ -3589,7 +3604,7 @@
         <v>18440</v>
       </c>
       <c r="K27" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31" t="s">
@@ -3597,10 +3612,10 @@
       </c>
       <c r="N27" s="31"/>
       <c r="O27" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P27" s="31" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
@@ -3641,7 +3656,7 @@
         <v>27</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>34</v>
@@ -3652,14 +3667,14 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -3698,7 +3713,7 @@
         <v>28</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I29" s="29" t="s">
         <v>27</v>
@@ -3707,7 +3722,7 @@
         <v>30015</v>
       </c>
       <c r="K29" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L29" s="29"/>
       <c r="M29" s="29" t="s">
@@ -3715,10 +3730,10 @@
       </c>
       <c r="N29" s="29"/>
       <c r="O29" s="29" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="P29" s="29" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="29">
         <v>19</v>
@@ -3761,7 +3776,7 @@
         <v>29</v>
       </c>
       <c r="H30" s="31" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I30" s="31" t="s">
         <v>27</v>
@@ -3770,7 +3785,7 @@
         <v>26479</v>
       </c>
       <c r="K30" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L30" s="31"/>
       <c r="M30" s="31" t="s">
@@ -3778,10 +3793,10 @@
       </c>
       <c r="N30" s="31"/>
       <c r="O30" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P30" s="31" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="31">
         <v>44</v>
@@ -3828,7 +3843,7 @@
         <v>30</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I31" s="35" t="s">
         <v>27</v>
@@ -3837,7 +3852,7 @@
         <v>33224</v>
       </c>
       <c r="K31" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L31" s="35"/>
       <c r="M31" s="35" t="s">
@@ -3845,10 +3860,10 @@
       </c>
       <c r="N31" s="35"/>
       <c r="O31" s="35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P31" s="35" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="Q31" s="35">
         <v>6</v>
@@ -3891,7 +3906,7 @@
         <v>31</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I32" s="29" t="s">
         <v>34</v>
@@ -3900,7 +3915,7 @@
         <v>22036</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L32" s="29"/>
       <c r="M32" s="29" t="s">
@@ -3908,10 +3923,10 @@
       </c>
       <c r="N32" s="29"/>
       <c r="O32" s="29" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="P32" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q32" s="29">
         <v>12</v>
@@ -3954,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I33" s="29" t="s">
         <v>34</v>
@@ -3963,7 +3978,7 @@
         <v>29817</v>
       </c>
       <c r="K33" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L33" s="29"/>
       <c r="M33" s="29" t="s">
@@ -3971,10 +3986,10 @@
       </c>
       <c r="N33" s="29"/>
       <c r="O33" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="P33" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="P33" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="Q33" s="29">
         <v>34</v>
@@ -4021,7 +4036,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I34" s="35" t="s">
         <v>27</v>
@@ -4030,7 +4045,7 @@
         <v>34379</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L34" s="35"/>
       <c r="M34" s="35" t="s">
@@ -4038,10 +4053,10 @@
       </c>
       <c r="N34" s="35"/>
       <c r="O34" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P34" s="35" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Q34" s="35">
         <v>25</v>
@@ -4088,7 +4103,7 @@
         <v>34</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I35" s="29" t="s">
         <v>27</v>
@@ -4097,7 +4112,7 @@
         <v>29883</v>
       </c>
       <c r="K35" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L35" s="29"/>
       <c r="M35" s="29" t="s">
@@ -4105,10 +4120,10 @@
       </c>
       <c r="N35" s="29"/>
       <c r="O35" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P35" s="29" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="Q35" s="29">
         <v>32</v>
@@ -4155,7 +4170,7 @@
         <v>35</v>
       </c>
       <c r="H36" s="31" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="I36" s="31" t="s">
         <v>27</v>
@@ -4164,7 +4179,7 @@
         <v>17534</v>
       </c>
       <c r="K36" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="31" t="s">
@@ -4172,10 +4187,10 @@
       </c>
       <c r="N36" s="31"/>
       <c r="O36" s="31" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="P36" s="31" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="Q36" s="31">
         <v>38</v>
@@ -4218,7 +4233,7 @@
         <v>36</v>
       </c>
       <c r="H37" s="31" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I37" s="31" t="s">
         <v>27</v>
@@ -4227,7 +4242,7 @@
         <v>16915</v>
       </c>
       <c r="K37" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31" t="s">
@@ -4235,10 +4250,10 @@
       </c>
       <c r="N37" s="31"/>
       <c r="O37" s="31" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="P37" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q37" s="31">
         <v>26</v>
@@ -4275,13 +4290,13 @@
         <v>1</v>
       </c>
       <c r="F38" s="90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G38" s="33">
         <v>37</v>
       </c>
       <c r="H38" s="33" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="I38" s="33" t="s">
         <v>34</v>
@@ -4290,7 +4305,7 @@
         <v>32687</v>
       </c>
       <c r="K38" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L38" s="33"/>
       <c r="M38" s="33" t="s">
@@ -4298,10 +4313,10 @@
       </c>
       <c r="N38" s="33"/>
       <c r="O38" s="33" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="P38" s="33" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="Q38" s="33">
         <v>12</v>
@@ -4346,7 +4361,7 @@
         <v>38</v>
       </c>
       <c r="H39" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I39" s="31" t="s">
         <v>34</v>
@@ -4355,7 +4370,7 @@
         <v>19834</v>
       </c>
       <c r="K39" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31" t="s">
@@ -4363,10 +4378,10 @@
       </c>
       <c r="N39" s="31"/>
       <c r="O39" s="31" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="P39" s="31" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="Q39" s="31">
         <v>35</v>
@@ -4409,7 +4424,7 @@
         <v>39</v>
       </c>
       <c r="H40" s="33" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I40" s="33" t="s">
         <v>34</v>
@@ -4420,14 +4435,14 @@
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N40" s="33"/>
       <c r="O40" s="33" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="P40" s="33" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="Q40" s="33"/>
       <c r="R40" s="33"/>
@@ -4466,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I41" s="29" t="s">
         <v>27</v>
@@ -4475,7 +4490,7 @@
         <v>29590</v>
       </c>
       <c r="K41" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L41" s="29"/>
       <c r="M41" s="29" t="s">
@@ -4531,7 +4546,7 @@
         <v>41</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I42" s="29" t="s">
         <v>34</v>
@@ -4542,14 +4557,14 @@
       <c r="K42" s="29"/>
       <c r="L42" s="29"/>
       <c r="M42" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N42" s="29"/>
       <c r="O42" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P42" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q42" s="29"/>
       <c r="R42" s="29">
@@ -4590,7 +4605,7 @@
         <v>42</v>
       </c>
       <c r="H43" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I43" s="35" t="s">
         <v>27</v>
@@ -4599,7 +4614,7 @@
         <v>25737</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35" t="s">
@@ -4607,10 +4622,10 @@
       </c>
       <c r="N43" s="35"/>
       <c r="O43" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P43" s="35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q43" s="35">
         <v>23</v>
@@ -4653,7 +4668,7 @@
         <v>43</v>
       </c>
       <c r="H44" s="33" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I44" s="33" t="s">
         <v>34</v>
@@ -4664,14 +4679,14 @@
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N44" s="33"/>
       <c r="O44" s="33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="P44" s="33" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="Q44" s="33"/>
       <c r="R44" s="33"/>
@@ -4710,7 +4725,7 @@
         <v>44</v>
       </c>
       <c r="H45" s="31" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I45" s="31" t="s">
         <v>34</v>
@@ -4719,7 +4734,7 @@
         <v>27437</v>
       </c>
       <c r="K45" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31" t="s">
@@ -4727,10 +4742,10 @@
       </c>
       <c r="N45" s="31"/>
       <c r="O45" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P45" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q45" s="31">
         <v>29</v>
@@ -4775,7 +4790,7 @@
         <v>45</v>
       </c>
       <c r="H46" s="33" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I46" s="33" t="s">
         <v>34</v>
@@ -4786,14 +4801,14 @@
       <c r="K46" s="33"/>
       <c r="L46" s="33"/>
       <c r="M46" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N46" s="33"/>
       <c r="O46" s="33" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="P46" s="33" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="Q46" s="33"/>
       <c r="R46" s="33"/>
@@ -4832,7 +4847,7 @@
         <v>46</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>34</v>
@@ -4843,14 +4858,14 @@
       <c r="K47" s="29"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N47" s="29"/>
       <c r="O47" s="29" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="P47" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q47" s="29"/>
       <c r="R47" s="29">
@@ -4891,7 +4906,7 @@
         <v>47</v>
       </c>
       <c r="H48" s="35" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I48" s="35" t="s">
         <v>27</v>
@@ -4900,7 +4915,7 @@
         <v>33641</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35" t="s">
@@ -4908,10 +4923,10 @@
       </c>
       <c r="N48" s="35"/>
       <c r="O48" s="35" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="P48" s="35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="Q48" s="35">
         <v>24</v>
@@ -4952,7 +4967,7 @@
         <v>48</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I49" s="44" t="s">
         <v>34</v>
@@ -4961,7 +4976,7 @@
         <v>22039</v>
       </c>
       <c r="K49" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L49" s="44"/>
       <c r="M49" s="44" t="s">
@@ -4969,10 +4984,10 @@
       </c>
       <c r="N49" s="44"/>
       <c r="O49" s="44" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="P49" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q49" s="44">
         <v>16</v>
@@ -5035,7 +5050,7 @@
         <v>36</v>
       </c>
       <c r="P50" s="71" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="Q50" s="71">
         <v>58</v>
@@ -5078,7 +5093,7 @@
         <v>50</v>
       </c>
       <c r="H51" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I51" s="31" t="s">
         <v>34</v>
@@ -5087,7 +5102,7 @@
         <v>11951</v>
       </c>
       <c r="K51" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L51" s="31"/>
       <c r="M51" s="31" t="s">
@@ -5095,10 +5110,10 @@
       </c>
       <c r="N51" s="31"/>
       <c r="O51" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P51" s="31" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
@@ -5139,7 +5154,7 @@
         <v>51</v>
       </c>
       <c r="H52" s="33" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="I52" s="33" t="s">
         <v>34</v>
@@ -5148,7 +5163,7 @@
         <v>21614</v>
       </c>
       <c r="K52" s="33" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="L52" s="33"/>
       <c r="M52" s="33" t="s">
@@ -5156,10 +5171,10 @@
       </c>
       <c r="N52" s="33"/>
       <c r="O52" s="33" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="P52" s="33" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="Q52" s="33">
         <v>66</v>
@@ -5204,7 +5219,7 @@
         <v>52</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I53" s="31" t="s">
         <v>34</v>
@@ -5213,7 +5228,7 @@
         <v>17797</v>
       </c>
       <c r="K53" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31" t="s">
@@ -5221,10 +5236,10 @@
       </c>
       <c r="N53" s="31"/>
       <c r="O53" s="31" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="P53" s="31" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="Q53" s="31">
         <v>62</v>
@@ -5267,7 +5282,7 @@
         <v>53</v>
       </c>
       <c r="H54" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I54" s="29" t="s">
         <v>34</v>
@@ -5276,7 +5291,7 @@
         <v>30992</v>
       </c>
       <c r="K54" s="29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L54" s="29"/>
       <c r="M54" s="29" t="s">
@@ -5284,10 +5299,10 @@
       </c>
       <c r="N54" s="29"/>
       <c r="O54" s="29" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="P54" s="29" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="Q54" s="29">
         <v>85</v>
@@ -5334,7 +5349,7 @@
         <v>54</v>
       </c>
       <c r="H55" s="35" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="I55" s="35" t="s">
         <v>34</v>
@@ -5343,7 +5358,7 @@
         <v>34755</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="L55" s="35"/>
       <c r="M55" s="35" t="s">
@@ -5351,10 +5366,10 @@
       </c>
       <c r="N55" s="35"/>
       <c r="O55" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P55" s="35" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="Q55" s="35">
         <v>78</v>
@@ -5401,7 +5416,7 @@
         <v>55</v>
       </c>
       <c r="H56" s="35" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I56" s="35" t="s">
         <v>34</v>
@@ -5410,18 +5425,18 @@
         <v>17989</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L56" s="35"/>
       <c r="M56" s="35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N56" s="35"/>
       <c r="O56" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="P56" s="35" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="Q56" s="35"/>
       <c r="R56" s="35"/>
@@ -5462,7 +5477,7 @@
         <v>56</v>
       </c>
       <c r="H57" s="35" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="I57" s="35" t="s">
         <v>34</v>
@@ -5471,18 +5486,18 @@
         <v>15930</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L57" s="35"/>
       <c r="M57" s="35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N57" s="35"/>
       <c r="O57" s="35" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P57" s="35" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="Q57" s="35"/>
       <c r="R57" s="35"/>
@@ -5523,7 +5538,7 @@
         <v>57</v>
       </c>
       <c r="H58" s="33" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I58" s="33" t="s">
         <v>34</v>
@@ -5532,7 +5547,7 @@
         <v>31791</v>
       </c>
       <c r="K58" s="33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L58" s="33"/>
       <c r="M58" s="33" t="s">
@@ -5540,10 +5555,10 @@
       </c>
       <c r="N58" s="33"/>
       <c r="O58" s="33" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="P58" s="33" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="Q58" s="33">
         <v>65</v>
@@ -5610,7 +5625,7 @@
         <v>30</v>
       </c>
       <c r="P59" s="29" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="Q59" s="29">
         <v>49</v>
@@ -5653,7 +5668,7 @@
         <v>59</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I60" s="29" t="s">
         <v>27</v>
@@ -5662,7 +5677,7 @@
         <v>20896</v>
       </c>
       <c r="K60" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L60" s="29"/>
       <c r="M60" s="29" t="s">
@@ -5670,10 +5685,10 @@
       </c>
       <c r="N60" s="29"/>
       <c r="O60" s="29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P60" s="29" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="Q60" s="29">
         <v>79</v>
@@ -5716,7 +5731,7 @@
         <v>60</v>
       </c>
       <c r="H61" s="33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I61" s="33" t="s">
         <v>27</v>
@@ -5725,7 +5740,7 @@
         <v>32410</v>
       </c>
       <c r="K61" s="33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="L61" s="33"/>
       <c r="M61" s="33" t="s">
@@ -5733,10 +5748,10 @@
       </c>
       <c r="N61" s="33"/>
       <c r="O61" s="33" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="P61" s="33" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q61" s="33">
         <v>85</v>
@@ -5781,7 +5796,7 @@
         <v>61</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I62" s="29" t="s">
         <v>34</v>
@@ -5792,14 +5807,14 @@
       <c r="K62" s="29"/>
       <c r="L62" s="29"/>
       <c r="M62" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N62" s="29"/>
       <c r="O62" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P62" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q62" s="29"/>
       <c r="R62" s="29">
@@ -5842,7 +5857,7 @@
         <v>62</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="I63" s="31" t="s">
         <v>27</v>
@@ -5851,7 +5866,7 @@
         <v>17403</v>
       </c>
       <c r="K63" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31" t="s">
@@ -5859,10 +5874,10 @@
       </c>
       <c r="N63" s="31"/>
       <c r="O63" s="31" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="P63" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q63" s="31">
         <v>52</v>
@@ -5905,7 +5920,7 @@
         <v>63</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I64" s="31" t="s">
         <v>27</v>
@@ -5914,7 +5929,7 @@
         <v>27272</v>
       </c>
       <c r="K64" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L64" s="31"/>
       <c r="M64" s="31" t="s">
@@ -5922,10 +5937,10 @@
       </c>
       <c r="N64" s="31"/>
       <c r="O64" s="31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="Q64" s="31">
         <v>68</v>
@@ -5972,7 +5987,7 @@
         <v>64</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I65" s="29" t="s">
         <v>27</v>
@@ -5981,7 +5996,7 @@
         <v>21489</v>
       </c>
       <c r="K65" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L65" s="29"/>
       <c r="M65" s="29" t="s">
@@ -5989,10 +6004,10 @@
       </c>
       <c r="N65" s="29"/>
       <c r="O65" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P65" s="29" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="Q65" s="29">
         <v>96</v>
@@ -6035,7 +6050,7 @@
         <v>65</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="I66" s="33" t="s">
         <v>27</v>
@@ -6044,7 +6059,7 @@
         <v>31826</v>
       </c>
       <c r="K66" s="33" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="L66" s="33"/>
       <c r="M66" s="33" t="s">
@@ -6052,10 +6067,10 @@
       </c>
       <c r="N66" s="33"/>
       <c r="O66" s="33" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="P66" s="33" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="Q66" s="33">
         <v>57</v>
@@ -6100,7 +6115,7 @@
         <v>66</v>
       </c>
       <c r="H67" s="33" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="I67" s="33" t="s">
         <v>27</v>
@@ -6109,7 +6124,7 @@
         <v>22071</v>
       </c>
       <c r="K67" s="33" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L67" s="33"/>
       <c r="M67" s="33" t="s">
@@ -6117,10 +6132,10 @@
       </c>
       <c r="N67" s="33"/>
       <c r="O67" s="33" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="P67" s="33" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="Q67" s="33">
         <v>51</v>
@@ -6165,7 +6180,7 @@
         <v>67</v>
       </c>
       <c r="H68" s="29" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="I68" s="29" t="s">
         <v>34</v>
@@ -6174,18 +6189,18 @@
         <v>30564</v>
       </c>
       <c r="K68" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L68" s="29"/>
       <c r="M68" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N68" s="29"/>
       <c r="O68" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P68" s="29" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="Q68" s="29">
         <v>76</v>
@@ -6232,7 +6247,7 @@
         <v>68</v>
       </c>
       <c r="H69" s="31" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I69" s="31" t="s">
         <v>34</v>
@@ -6241,7 +6256,7 @@
         <v>28462</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31" t="s">
@@ -6249,10 +6264,10 @@
       </c>
       <c r="N69" s="31"/>
       <c r="O69" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="Q69" s="31">
         <v>63</v>
@@ -6299,7 +6314,7 @@
         <v>69</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>34</v>
@@ -6310,14 +6325,14 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N70" s="1"/>
       <c r="O70" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="P70" s="1" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -6356,7 +6371,7 @@
         <v>70</v>
       </c>
       <c r="H71" s="33" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="I71" s="33" t="s">
         <v>34</v>
@@ -6367,14 +6382,14 @@
       <c r="K71" s="33"/>
       <c r="L71" s="33"/>
       <c r="M71" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N71" s="33"/>
       <c r="O71" s="33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="P71" s="33" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="Q71" s="33"/>
       <c r="R71" s="33"/>
@@ -6415,7 +6430,7 @@
         <v>71</v>
       </c>
       <c r="H72" s="35" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I72" s="35" t="s">
         <v>34</v>
@@ -6424,7 +6439,7 @@
         <v>25267</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L72" s="35"/>
       <c r="M72" s="35" t="s">
@@ -6432,10 +6447,10 @@
       </c>
       <c r="N72" s="35"/>
       <c r="O72" s="35" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="P72" s="35" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="Q72" s="35">
         <v>90</v>
@@ -6480,14 +6495,14 @@
         <v>72</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="I73" s="35"/>
       <c r="J73" s="36">
         <v>34755</v>
       </c>
       <c r="K73" s="35" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="L73" s="35"/>
       <c r="M73" s="35" t="s">
@@ -6495,10 +6510,10 @@
       </c>
       <c r="N73" s="35"/>
       <c r="O73" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P73" s="35" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="Q73" s="35">
         <v>95</v>
@@ -6545,7 +6560,7 @@
         <v>73</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="I74" s="35" t="s">
         <v>34</v>
@@ -6554,7 +6569,7 @@
         <v>34380</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L74" s="35"/>
       <c r="M74" s="35" t="s">
@@ -6562,10 +6577,10 @@
       </c>
       <c r="N74" s="35"/>
       <c r="O74" s="35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P74" s="35" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="Q74" s="35">
         <v>81</v>
@@ -6608,7 +6623,7 @@
         <v>74</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="I75" s="31" t="s">
         <v>34</v>
@@ -6617,7 +6632,7 @@
         <v>18440</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L75" s="31"/>
       <c r="M75" s="31" t="s">
@@ -6625,10 +6640,10 @@
       </c>
       <c r="N75" s="31"/>
       <c r="O75" s="31" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P75" s="31" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="Q75" s="31"/>
       <c r="R75" s="31"/>
@@ -6669,7 +6684,7 @@
         <v>75</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>34</v>
@@ -6680,14 +6695,14 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="P76" s="1" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -6726,7 +6741,7 @@
         <v>76</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="I77" s="29" t="s">
         <v>27</v>
@@ -6735,7 +6750,7 @@
         <v>30015</v>
       </c>
       <c r="K77" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L77" s="29"/>
       <c r="M77" s="29" t="s">
@@ -6743,10 +6758,10 @@
       </c>
       <c r="N77" s="29"/>
       <c r="O77" s="29" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="P77" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q77" s="29">
         <v>67</v>
@@ -6789,7 +6804,7 @@
         <v>77</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I78" s="31" t="s">
         <v>27</v>
@@ -6798,7 +6813,7 @@
         <v>26479</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L78" s="31"/>
       <c r="M78" s="31" t="s">
@@ -6806,10 +6821,10 @@
       </c>
       <c r="N78" s="31"/>
       <c r="O78" s="31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P78" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q78" s="31">
         <v>92</v>
@@ -6856,7 +6871,7 @@
         <v>78</v>
       </c>
       <c r="H79" s="35" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="I79" s="35" t="s">
         <v>27</v>
@@ -6865,7 +6880,7 @@
         <v>33224</v>
       </c>
       <c r="K79" s="35" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="L79" s="35"/>
       <c r="M79" s="35" t="s">
@@ -6873,10 +6888,10 @@
       </c>
       <c r="N79" s="35"/>
       <c r="O79" s="35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P79" s="35" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="Q79" s="35">
         <v>54</v>
@@ -6919,7 +6934,7 @@
         <v>79</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I80" s="29" t="s">
         <v>34</v>
@@ -6928,7 +6943,7 @@
         <v>22036</v>
       </c>
       <c r="K80" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L80" s="29"/>
       <c r="M80" s="29" t="s">
@@ -6936,10 +6951,10 @@
       </c>
       <c r="N80" s="29"/>
       <c r="O80" s="29" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="P80" s="29" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="Q80" s="29">
         <v>60</v>
@@ -6982,7 +6997,7 @@
         <v>80</v>
       </c>
       <c r="H81" s="29" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="I81" s="29" t="s">
         <v>34</v>
@@ -6991,7 +7006,7 @@
         <v>29817</v>
       </c>
       <c r="K81" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L81" s="29"/>
       <c r="M81" s="29" t="s">
@@ -6999,10 +7014,10 @@
       </c>
       <c r="N81" s="29"/>
       <c r="O81" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P81" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q81" s="29">
         <v>82</v>
@@ -7049,7 +7064,7 @@
         <v>81</v>
       </c>
       <c r="H82" s="35" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I82" s="35" t="s">
         <v>27</v>
@@ -7058,7 +7073,7 @@
         <v>34379</v>
       </c>
       <c r="K82" s="35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L82" s="35"/>
       <c r="M82" s="35" t="s">
@@ -7066,10 +7081,10 @@
       </c>
       <c r="N82" s="35"/>
       <c r="O82" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P82" s="35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="Q82" s="35">
         <v>73</v>
@@ -7116,7 +7131,7 @@
         <v>82</v>
       </c>
       <c r="H83" s="29" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I83" s="29" t="s">
         <v>27</v>
@@ -7125,7 +7140,7 @@
         <v>29883</v>
       </c>
       <c r="K83" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L83" s="29"/>
       <c r="M83" s="29" t="s">
@@ -7133,10 +7148,10 @@
       </c>
       <c r="N83" s="29"/>
       <c r="O83" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="P83" s="29" t="s">
         <v>56</v>
-      </c>
-      <c r="P83" s="29" t="s">
-        <v>57</v>
       </c>
       <c r="Q83" s="29">
         <v>80</v>
@@ -7183,7 +7198,7 @@
         <v>83</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="I84" s="31" t="s">
         <v>27</v>
@@ -7192,7 +7207,7 @@
         <v>17534</v>
       </c>
       <c r="K84" s="31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31" t="s">
@@ -7200,10 +7215,10 @@
       </c>
       <c r="N84" s="31"/>
       <c r="O84" s="31" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="P84" s="31" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="Q84" s="31">
         <v>86</v>
@@ -7246,7 +7261,7 @@
         <v>84</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I85" s="31" t="s">
         <v>27</v>
@@ -7255,7 +7270,7 @@
         <v>16915</v>
       </c>
       <c r="K85" s="31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31" t="s">
@@ -7263,10 +7278,10 @@
       </c>
       <c r="N85" s="31"/>
       <c r="O85" s="31" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="P85" s="31" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="Q85" s="31">
         <v>74</v>
@@ -7303,13 +7318,13 @@
         <v>1</v>
       </c>
       <c r="F86" s="90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86" s="33">
         <v>85</v>
       </c>
       <c r="H86" s="33" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="I86" s="33" t="s">
         <v>34</v>
@@ -7318,7 +7333,7 @@
         <v>32687</v>
       </c>
       <c r="K86" s="33" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L86" s="33"/>
       <c r="M86" s="33" t="s">
@@ -7326,10 +7341,10 @@
       </c>
       <c r="N86" s="33"/>
       <c r="O86" s="33" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="P86" s="33" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="Q86" s="33">
         <v>60</v>
@@ -7374,7 +7389,7 @@
         <v>86</v>
       </c>
       <c r="H87" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I87" s="31" t="s">
         <v>34</v>
@@ -7383,7 +7398,7 @@
         <v>19834</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L87" s="31"/>
       <c r="M87" s="31" t="s">
@@ -7391,10 +7406,10 @@
       </c>
       <c r="N87" s="31"/>
       <c r="O87" s="31" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="P87" s="31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q87" s="31">
         <v>83</v>
@@ -7437,7 +7452,7 @@
         <v>87</v>
       </c>
       <c r="H88" s="33" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="I88" s="33" t="s">
         <v>34</v>
@@ -7448,14 +7463,14 @@
       <c r="K88" s="33"/>
       <c r="L88" s="33"/>
       <c r="M88" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N88" s="33"/>
       <c r="O88" s="33" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="P88" s="33" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="Q88" s="33"/>
       <c r="R88" s="33"/>
@@ -7494,7 +7509,7 @@
         <v>88</v>
       </c>
       <c r="H89" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I89" s="29" t="s">
         <v>27</v>
@@ -7503,7 +7518,7 @@
         <v>29590</v>
       </c>
       <c r="K89" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L89" s="29"/>
       <c r="M89" s="29" t="s">
@@ -7514,7 +7529,7 @@
         <v>35</v>
       </c>
       <c r="P89" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q89" s="29">
         <v>53</v>
@@ -7559,7 +7574,7 @@
         <v>89</v>
       </c>
       <c r="H90" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I90" s="29" t="s">
         <v>34</v>
@@ -7570,14 +7585,14 @@
       <c r="K90" s="29"/>
       <c r="L90" s="29"/>
       <c r="M90" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N90" s="29"/>
       <c r="O90" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P90" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q90" s="29"/>
       <c r="R90" s="29">
@@ -7618,7 +7633,7 @@
         <v>90</v>
       </c>
       <c r="H91" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I91" s="35" t="s">
         <v>27</v>
@@ -7627,7 +7642,7 @@
         <v>25737</v>
       </c>
       <c r="K91" s="35" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="L91" s="35"/>
       <c r="M91" s="35" t="s">
@@ -7635,10 +7650,10 @@
       </c>
       <c r="N91" s="35"/>
       <c r="O91" s="35" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P91" s="35" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="Q91" s="35">
         <v>71</v>
@@ -7681,7 +7696,7 @@
         <v>91</v>
       </c>
       <c r="H92" s="33" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I92" s="33" t="s">
         <v>34</v>
@@ -7692,14 +7707,14 @@
       <c r="K92" s="33"/>
       <c r="L92" s="33"/>
       <c r="M92" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N92" s="33"/>
       <c r="O92" s="33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="P92" s="33" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="Q92" s="33"/>
       <c r="R92" s="33"/>
@@ -7738,7 +7753,7 @@
         <v>92</v>
       </c>
       <c r="H93" s="31" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="I93" s="31" t="s">
         <v>34</v>
@@ -7747,7 +7762,7 @@
         <v>27437</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L93" s="31"/>
       <c r="M93" s="31" t="s">
@@ -7755,10 +7770,10 @@
       </c>
       <c r="N93" s="31"/>
       <c r="O93" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P93" s="31" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="Q93" s="31">
         <v>77</v>
@@ -7803,7 +7818,7 @@
         <v>93</v>
       </c>
       <c r="H94" s="33" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="I94" s="33" t="s">
         <v>34</v>
@@ -7814,14 +7829,14 @@
       <c r="K94" s="33"/>
       <c r="L94" s="33"/>
       <c r="M94" s="33" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="N94" s="33"/>
       <c r="O94" s="33" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="P94" s="33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="Q94" s="33"/>
       <c r="R94" s="33"/>
@@ -7860,7 +7875,7 @@
         <v>94</v>
       </c>
       <c r="H95" s="29" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="I95" s="29" t="s">
         <v>34</v>
@@ -7871,14 +7886,14 @@
       <c r="K95" s="29"/>
       <c r="L95" s="29"/>
       <c r="M95" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N95" s="29"/>
       <c r="O95" s="29" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="P95" s="29" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="Q95" s="29"/>
       <c r="R95" s="29">
@@ -7919,7 +7934,7 @@
         <v>95</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I96" s="35" t="s">
         <v>27</v>
@@ -7928,7 +7943,7 @@
         <v>33641</v>
       </c>
       <c r="K96" s="35" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="L96" s="35"/>
       <c r="M96" s="35" t="s">
@@ -7936,10 +7951,10 @@
       </c>
       <c r="N96" s="35"/>
       <c r="O96" s="35" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="P96" s="35" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="Q96" s="35">
         <v>72</v>
@@ -7980,7 +7995,7 @@
         <v>96</v>
       </c>
       <c r="H97" s="86" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I97" s="86" t="s">
         <v>34</v>
@@ -7989,7 +8004,7 @@
         <v>22039</v>
       </c>
       <c r="K97" s="86" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L97" s="86"/>
       <c r="M97" s="86" t="s">
@@ -7997,10 +8012,10 @@
       </c>
       <c r="N97" s="86"/>
       <c r="O97" s="86" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="P97" s="86" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="Q97" s="86">
         <v>64</v>
@@ -8047,7 +8062,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B1" s="93"/>
       <c r="C1" s="19"/>
@@ -8115,12 +8130,12 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="90" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="90" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="Q3" s="19"/>
       <c r="R3" s="19"/>
@@ -8135,22 +8150,22 @@
     <row r="4" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="90" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="90" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
       <c r="H4" s="91" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
       <c r="K4" s="91" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="L4" s="19"/>
       <c r="M4" s="90"/>
@@ -8252,35 +8267,35 @@
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="90" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D8" s="90"/>
       <c r="E8" s="19"/>
       <c r="F8" s="90" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G8" s="90"/>
       <c r="H8" s="19"/>
       <c r="I8" s="90" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J8" s="90"/>
       <c r="K8" s="19"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="90" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="O8" s="90"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="90" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="R8" s="90"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
       <c r="U8" s="90" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="V8" s="90"/>
       <c r="W8" s="19"/>
@@ -8405,12 +8420,12 @@
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
       <c r="I13" s="90" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="J13" s="90"/>
       <c r="K13" s="19"/>
       <c r="L13" s="90" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="M13" s="90"/>
       <c r="N13" s="19"/>
@@ -8419,7 +8434,7 @@
       <c r="Q13" s="19"/>
       <c r="R13" s="19"/>
       <c r="S13" s="90" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="T13" s="90"/>
       <c r="U13" s="19"/>
@@ -9385,7 +9400,7 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="19"/>
@@ -9426,7 +9441,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
       <c r="N2" s="90" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="O2" s="90"/>
       <c r="P2" s="26"/>
@@ -9500,13 +9515,13 @@
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="90" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
       <c r="L5" s="90" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="M5" s="90"/>
       <c r="N5" s="19"/>
@@ -9523,13 +9538,13 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B6" s="90"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="90" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F6" s="90"/>
       <c r="G6" s="19"/>
@@ -9541,13 +9556,13 @@
       <c r="M6" s="90"/>
       <c r="N6" s="19"/>
       <c r="O6" s="95" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="P6" s="96"/>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="95" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="T6" s="96"/>
       <c r="U6" s="19"/>
@@ -9637,27 +9652,27 @@
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="90" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="D10" s="90"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="90" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I10" s="90"/>
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="101" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M10" s="101"/>
       <c r="N10" s="19"/>
       <c r="O10" s="19"/>
       <c r="P10" s="19"/>
       <c r="Q10" s="90" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="R10" s="90"/>
       <c r="S10" s="19"/>
@@ -10582,7 +10597,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="102" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B1" s="102"/>
       <c r="C1" s="19"/>
@@ -10611,7 +10626,7 @@
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="90" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F2" s="90"/>
       <c r="H2" s="19"/>
@@ -10620,7 +10635,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="90" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="N2" s="90"/>
       <c r="O2" s="19"/>
@@ -10685,13 +10700,13 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="90" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H5" s="90"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="90" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="L5" s="90"/>
       <c r="M5" s="19"/>
@@ -10776,34 +10791,34 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="19"/>
       <c r="B9" s="90" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C9" s="90"/>
       <c r="D9" s="19"/>
       <c r="E9" s="90" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F9" s="90"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
       <c r="I9" s="90" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="J9" s="90"/>
       <c r="K9" s="19"/>
       <c r="L9" s="90" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="M9" s="90"/>
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="90" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="90"/>
       <c r="R9" s="19"/>
       <c r="S9" s="90" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="T9" s="90"/>
       <c r="U9" s="19"/>
@@ -11393,7 +11408,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="104" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B1" s="104"/>
       <c r="C1" s="12"/>
@@ -11419,7 +11434,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="103" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="F2" s="103"/>
       <c r="G2" s="12"/>
@@ -11429,7 +11444,7 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="103" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N2" s="103"/>
       <c r="O2" s="12"/>
@@ -11485,13 +11500,13 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="103" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H5" s="103"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="103" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L5" s="103"/>
       <c r="M5" s="12"/>
@@ -11504,7 +11519,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="103" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="C6" s="103"/>
       <c r="D6" s="12"/>
@@ -11520,7 +11535,7 @@
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="103" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="103"/>
       <c r="R6" s="12"/>
@@ -11570,23 +11585,23 @@
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="103" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E9" s="103"/>
       <c r="F9" s="12"/>
       <c r="G9" s="103" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="103" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L9" s="103"/>
       <c r="M9" s="12"/>
       <c r="N9" s="103" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O9" s="103"/>
       <c r="P9" s="12"/>
@@ -11749,11 +11764,11 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="103" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="C2" s="103"/>
       <c r="F2" s="103" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G2" s="103"/>
     </row>
@@ -11777,7 +11792,7 @@
   <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:Q97"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11877,7 +11892,7 @@
         <v>36</v>
       </c>
       <c r="J2" s="39" t="s">
-        <v>37</v>
+        <v>247</v>
       </c>
       <c r="K2" s="39">
         <v>10</v>
@@ -11902,7 +11917,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>34</v>
@@ -11911,7 +11926,7 @@
         <v>11951</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39" t="s">
@@ -11919,10 +11934,10 @@
       </c>
       <c r="H3" s="39"/>
       <c r="I3" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
@@ -11945,7 +11960,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C4" s="39" t="s">
         <v>34</v>
@@ -11954,7 +11969,7 @@
         <v>21614</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="39" t="s">
@@ -11962,10 +11977,10 @@
       </c>
       <c r="H4" s="39"/>
       <c r="I4" s="39" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K4" s="39">
         <v>18</v>
@@ -11992,7 +12007,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>34</v>
@@ -12001,7 +12016,7 @@
         <v>17797</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39" t="s">
@@ -12009,10 +12024,10 @@
       </c>
       <c r="H5" s="39"/>
       <c r="I5" s="39" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="K5" s="39">
         <v>14</v>
@@ -12037,7 +12052,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="39" t="s">
         <v>34</v>
@@ -12046,7 +12061,7 @@
         <v>30992</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39" t="s">
@@ -12054,10 +12069,10 @@
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="K6" s="39">
         <v>37</v>
@@ -12086,7 +12101,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>34</v>
@@ -12095,7 +12110,7 @@
         <v>34755</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="39" t="s">
@@ -12103,10 +12118,10 @@
       </c>
       <c r="H7" s="39"/>
       <c r="I7" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="K7" s="39">
         <v>30</v>
@@ -12135,7 +12150,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>34</v>
@@ -12144,18 +12159,18 @@
         <v>17989</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H8" s="39"/>
       <c r="I8" s="39" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
@@ -12178,7 +12193,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>34</v>
@@ -12187,18 +12202,18 @@
         <v>15930</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F9" s="39"/>
       <c r="G9" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H9" s="39"/>
       <c r="I9" s="39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -12221,7 +12236,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>34</v>
@@ -12230,7 +12245,7 @@
         <v>31791</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F10" s="39"/>
       <c r="G10" s="39" t="s">
@@ -12238,10 +12253,10 @@
       </c>
       <c r="H10" s="39"/>
       <c r="I10" s="39" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="K10" s="39">
         <v>17</v>
@@ -12315,7 +12330,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>27</v>
@@ -12324,7 +12339,7 @@
         <v>20896</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39" t="s">
@@ -12332,10 +12347,10 @@
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>47</v>
       </c>
       <c r="K12" s="39">
         <v>31</v>
@@ -12360,7 +12375,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>27</v>
@@ -12369,7 +12384,7 @@
         <v>32410</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="39" t="s">
@@ -12377,10 +12392,10 @@
       </c>
       <c r="H13" s="39"/>
       <c r="I13" s="39" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="K13" s="39">
         <v>37</v>
@@ -12407,7 +12422,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="39" t="s">
         <v>34</v>
@@ -12418,14 +12433,14 @@
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="39"/>
       <c r="L14" s="39">
@@ -12450,7 +12465,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C15" s="39" t="s">
         <v>27</v>
@@ -12459,7 +12474,7 @@
         <v>17403</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="39" t="s">
@@ -12467,10 +12482,10 @@
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="39" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="K15" s="39">
         <v>4</v>
@@ -12495,7 +12510,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C16" s="39" t="s">
         <v>27</v>
@@ -12504,7 +12519,7 @@
         <v>27272</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39" t="s">
@@ -12512,10 +12527,10 @@
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J16" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K16" s="39">
         <v>20</v>
@@ -12544,7 +12559,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C17" s="39" t="s">
         <v>27</v>
@@ -12553,7 +12568,7 @@
         <v>21489</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39" t="s">
@@ -12561,10 +12576,10 @@
       </c>
       <c r="H17" s="39"/>
       <c r="I17" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="39" t="s">
         <v>58</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>59</v>
       </c>
       <c r="K17" s="39">
         <v>48</v>
@@ -12589,7 +12604,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C18" s="39" t="s">
         <v>27</v>
@@ -12598,7 +12613,7 @@
         <v>31826</v>
       </c>
       <c r="E18" s="39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39" t="s">
@@ -12606,10 +12621,10 @@
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="39" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="J18" s="39" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="K18" s="39">
         <v>9</v>
@@ -12636,7 +12651,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>27</v>
@@ -12645,7 +12660,7 @@
         <v>22071</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39" t="s">
@@ -12653,10 +12668,10 @@
       </c>
       <c r="H19" s="39"/>
       <c r="I19" s="39" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="J19" s="39" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="K19" s="39">
         <v>3</v>
@@ -12683,7 +12698,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C20" s="39" t="s">
         <v>34</v>
@@ -12692,18 +12707,18 @@
         <v>30564</v>
       </c>
       <c r="E20" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J20" s="39" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="K20" s="39">
         <v>28</v>
@@ -12732,7 +12747,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C21" s="39" t="s">
         <v>34</v>
@@ -12741,7 +12756,7 @@
         <v>28462</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
@@ -12749,10 +12764,10 @@
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J21" s="39" t="s">
-        <v>228</v>
+        <v>66</v>
       </c>
       <c r="K21" s="39">
         <v>15</v>
@@ -12781,7 +12796,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C22" s="39" t="s">
         <v>34</v>
@@ -12792,14 +12807,14 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="39" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K22" s="39"/>
       <c r="L22" s="39"/>
@@ -12820,7 +12835,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C23" s="39" t="s">
         <v>34</v>
@@ -12831,14 +12846,14 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
@@ -12861,7 +12876,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C24" s="39" t="s">
         <v>34</v>
@@ -12870,7 +12885,7 @@
         <v>25267</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39" t="s">
@@ -12878,10 +12893,10 @@
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="K24" s="39">
         <v>42</v>
@@ -12908,14 +12923,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C25" s="39"/>
       <c r="D25" s="89">
         <v>34755</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="39" t="s">
@@ -12923,10 +12938,10 @@
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="K25" s="39">
         <v>47</v>
@@ -12955,7 +12970,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C26" s="39" t="s">
         <v>34</v>
@@ -12964,7 +12979,7 @@
         <v>34380</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="39" t="s">
@@ -12972,10 +12987,10 @@
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="K26" s="39">
         <v>33</v>
@@ -13000,7 +13015,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C27" s="39" t="s">
         <v>34</v>
@@ -13009,7 +13024,7 @@
         <v>18440</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="39" t="s">
@@ -13017,10 +13032,10 @@
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
@@ -13043,7 +13058,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C28" s="39" t="s">
         <v>34</v>
@@ -13054,14 +13069,14 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="K28" s="39"/>
       <c r="L28" s="39"/>
@@ -13082,7 +13097,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C29" s="39" t="s">
         <v>27</v>
@@ -13091,7 +13106,7 @@
         <v>30015</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="39" t="s">
@@ -13099,10 +13114,10 @@
       </c>
       <c r="H29" s="39"/>
       <c r="I29" s="39" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="J29" s="39" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="K29" s="39">
         <v>19</v>
@@ -13127,7 +13142,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>27</v>
@@ -13136,7 +13151,7 @@
         <v>26479</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39" t="s">
@@ -13144,10 +13159,10 @@
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J30" s="39" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="K30" s="39">
         <v>44</v>
@@ -13176,7 +13191,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C31" s="39" t="s">
         <v>27</v>
@@ -13185,7 +13200,7 @@
         <v>33224</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="39" t="s">
@@ -13193,10 +13208,10 @@
       </c>
       <c r="H31" s="39"/>
       <c r="I31" s="39" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J31" s="39" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="K31" s="39">
         <v>6</v>
@@ -13221,7 +13236,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C32" s="39" t="s">
         <v>34</v>
@@ -13230,7 +13245,7 @@
         <v>22036</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39" t="s">
@@ -13238,10 +13253,10 @@
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="J32" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32" s="39">
         <v>12</v>
@@ -13266,7 +13281,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C33" s="39" t="s">
         <v>34</v>
@@ -13275,7 +13290,7 @@
         <v>29817</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="39" t="s">
@@ -13283,10 +13298,10 @@
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="39" t="s">
         <v>48</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>49</v>
       </c>
       <c r="K33" s="39">
         <v>34</v>
@@ -13315,7 +13330,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C34" s="39" t="s">
         <v>27</v>
@@ -13324,7 +13339,7 @@
         <v>34379</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="39" t="s">
@@ -13332,10 +13347,10 @@
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J34" s="39" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K34" s="39">
         <v>25</v>
@@ -13364,7 +13379,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C35" s="39" t="s">
         <v>27</v>
@@ -13373,7 +13388,7 @@
         <v>29883</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35" s="39"/>
       <c r="G35" s="39" t="s">
@@ -13381,10 +13396,10 @@
       </c>
       <c r="H35" s="39"/>
       <c r="I35" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35" s="39" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="K35" s="39">
         <v>32</v>
@@ -13413,7 +13428,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C36" s="39" t="s">
         <v>27</v>
@@ -13422,7 +13437,7 @@
         <v>17534</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F36" s="39"/>
       <c r="G36" s="39" t="s">
@@ -13430,10 +13445,10 @@
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="39" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="J36" s="39" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="K36" s="39">
         <v>38</v>
@@ -13458,7 +13473,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C37" s="39" t="s">
         <v>27</v>
@@ -13467,7 +13482,7 @@
         <v>16915</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="39"/>
       <c r="G37" s="39" t="s">
@@ -13475,10 +13490,10 @@
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="39" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="J37" s="39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K37" s="39">
         <v>26</v>
@@ -13503,7 +13518,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C38" s="39" t="s">
         <v>34</v>
@@ -13512,7 +13527,7 @@
         <v>32687</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F38" s="39"/>
       <c r="G38" s="39" t="s">
@@ -13520,10 +13535,10 @@
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="39" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="K38" s="39">
         <v>12</v>
@@ -13552,7 +13567,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="39" t="s">
         <v>34</v>
@@ -13561,7 +13576,7 @@
         <v>19834</v>
       </c>
       <c r="E39" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" s="39"/>
       <c r="G39" s="39" t="s">
@@ -13569,10 +13584,10 @@
       </c>
       <c r="H39" s="39"/>
       <c r="I39" s="39" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="J39" s="39" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="K39" s="39">
         <v>35</v>
@@ -13599,7 +13614,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C40" s="39" t="s">
         <v>34</v>
@@ -13610,14 +13625,14 @@
       <c r="E40" s="39"/>
       <c r="F40" s="39"/>
       <c r="G40" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H40" s="39"/>
       <c r="I40" s="39" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="J40" s="39" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="K40" s="39"/>
       <c r="L40" s="39"/>
@@ -13640,7 +13655,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C41" s="39" t="s">
         <v>27</v>
@@ -13649,7 +13664,7 @@
         <v>29590</v>
       </c>
       <c r="E41" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="39"/>
       <c r="G41" s="39" t="s">
@@ -13689,7 +13704,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="39" t="s">
         <v>34</v>
@@ -13700,14 +13715,14 @@
       <c r="E42" s="39"/>
       <c r="F42" s="39"/>
       <c r="G42" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="39"/>
       <c r="I42" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J42" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42" s="39"/>
       <c r="L42" s="39">
@@ -13732,7 +13747,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>27</v>
@@ -13741,7 +13756,7 @@
         <v>25737</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F43" s="39"/>
       <c r="G43" s="39" t="s">
@@ -13749,10 +13764,10 @@
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J43" s="39" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K43" s="39">
         <v>23</v>
@@ -13779,7 +13794,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C44" s="39" t="s">
         <v>34</v>
@@ -13790,14 +13805,14 @@
       <c r="E44" s="39"/>
       <c r="F44" s="39"/>
       <c r="G44" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="39" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J44" s="39" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K44" s="39"/>
       <c r="L44" s="39"/>
@@ -13820,7 +13835,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="39" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>34</v>
@@ -13829,7 +13844,7 @@
         <v>27437</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F45" s="39"/>
       <c r="G45" s="39" t="s">
@@ -13837,10 +13852,10 @@
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J45" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K45" s="39">
         <v>29</v>
@@ -13869,7 +13884,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>34</v>
@@ -13880,14 +13895,14 @@
       <c r="E46" s="39"/>
       <c r="F46" s="39"/>
       <c r="G46" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="39" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="J46" s="39" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="K46" s="39"/>
       <c r="L46" s="39"/>
@@ -13910,7 +13925,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>34</v>
@@ -13921,14 +13936,14 @@
       <c r="E47" s="39"/>
       <c r="F47" s="39"/>
       <c r="G47" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="39" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="J47" s="39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K47" s="39"/>
       <c r="L47" s="39">
@@ -13953,7 +13968,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>27</v>
@@ -13962,7 +13977,7 @@
         <v>33641</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F48" s="39"/>
       <c r="G48" s="39" t="s">
@@ -13970,10 +13985,10 @@
       </c>
       <c r="H48" s="39"/>
       <c r="I48" s="39" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="J48" s="39" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K48" s="39">
         <v>24</v>
@@ -13998,7 +14013,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C49" s="39" t="s">
         <v>34</v>
@@ -14007,7 +14022,7 @@
         <v>22039</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="39"/>
       <c r="G49" s="39" t="s">
@@ -14015,10 +14030,10 @@
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="39" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="J49" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K49" s="39">
         <v>16</v>
@@ -14063,7 +14078,7 @@
         <v>36</v>
       </c>
       <c r="J50" s="39" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="K50" s="39">
         <v>58</v>
@@ -14088,7 +14103,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>34</v>
@@ -14097,7 +14112,7 @@
         <v>11951</v>
       </c>
       <c r="E51" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="39" t="s">
@@ -14105,10 +14120,10 @@
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J51" s="39" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="K51" s="39"/>
       <c r="L51" s="39"/>
@@ -14131,7 +14146,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C52" s="39" t="s">
         <v>34</v>
@@ -14140,7 +14155,7 @@
         <v>21614</v>
       </c>
       <c r="E52" s="39" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F52" s="39"/>
       <c r="G52" s="39" t="s">
@@ -14148,10 +14163,10 @@
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="39" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="J52" s="39" t="s">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="K52" s="39">
         <v>66</v>
@@ -14178,7 +14193,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>34</v>
@@ -14187,7 +14202,7 @@
         <v>17797</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="39" t="s">
@@ -14195,10 +14210,10 @@
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="39" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="J53" s="39" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
       <c r="K53" s="39">
         <v>62</v>
@@ -14223,7 +14238,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>34</v>
@@ -14232,7 +14247,7 @@
         <v>30992</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F54" s="39"/>
       <c r="G54" s="39" t="s">
@@ -14240,10 +14255,10 @@
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="39" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="J54" s="39" t="s">
-        <v>54</v>
+        <v>269</v>
       </c>
       <c r="K54" s="39">
         <v>85</v>
@@ -14272,7 +14287,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>34</v>
@@ -14281,7 +14296,7 @@
         <v>34755</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F55" s="39"/>
       <c r="G55" s="39" t="s">
@@ -14289,10 +14304,10 @@
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J55" s="39" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="K55" s="39">
         <v>78</v>
@@ -14321,7 +14336,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C56" s="39" t="s">
         <v>34</v>
@@ -14330,18 +14345,18 @@
         <v>17989</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F56" s="39"/>
       <c r="G56" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="39" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="J56" s="39" t="s">
-        <v>97</v>
+        <v>270</v>
       </c>
       <c r="K56" s="39"/>
       <c r="L56" s="39"/>
@@ -14364,7 +14379,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="C57" s="39" t="s">
         <v>34</v>
@@ -14373,18 +14388,18 @@
         <v>15930</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="39" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J57" s="39" t="s">
-        <v>99</v>
+        <v>271</v>
       </c>
       <c r="K57" s="39"/>
       <c r="L57" s="39"/>
@@ -14407,7 +14422,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C58" s="39" t="s">
         <v>34</v>
@@ -14416,7 +14431,7 @@
         <v>31791</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F58" s="39"/>
       <c r="G58" s="39" t="s">
@@ -14424,10 +14439,10 @@
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="39" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="J58" s="39" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="K58" s="39">
         <v>65</v>
@@ -14476,7 +14491,7 @@
         <v>30</v>
       </c>
       <c r="J59" s="39" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="K59" s="39">
         <v>49</v>
@@ -14501,7 +14516,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C60" s="39" t="s">
         <v>27</v>
@@ -14510,7 +14525,7 @@
         <v>20896</v>
       </c>
       <c r="E60" s="39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F60" s="39"/>
       <c r="G60" s="39" t="s">
@@ -14518,10 +14533,10 @@
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J60" s="39" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="K60" s="39">
         <v>79</v>
@@ -14546,7 +14561,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>27</v>
@@ -14555,7 +14570,7 @@
         <v>32410</v>
       </c>
       <c r="E61" s="39" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="39" t="s">
@@ -14563,10 +14578,10 @@
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="39" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="J61" s="39" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K61" s="39">
         <v>85</v>
@@ -14593,7 +14608,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>34</v>
@@ -14604,14 +14619,14 @@
       <c r="E62" s="39"/>
       <c r="F62" s="39"/>
       <c r="G62" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J62" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K62" s="39"/>
       <c r="L62" s="39">
@@ -14636,7 +14651,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C63" s="39" t="s">
         <v>27</v>
@@ -14645,7 +14660,7 @@
         <v>17403</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="39"/>
       <c r="G63" s="39" t="s">
@@ -14653,10 +14668,10 @@
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="39" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="J63" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K63" s="39">
         <v>52</v>
@@ -14681,7 +14696,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C64" s="39" t="s">
         <v>27</v>
@@ -14690,7 +14705,7 @@
         <v>27272</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F64" s="39"/>
       <c r="G64" s="39" t="s">
@@ -14698,10 +14713,10 @@
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J64" s="39" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="K64" s="39">
         <v>68</v>
@@ -14730,7 +14745,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C65" s="39" t="s">
         <v>27</v>
@@ -14739,7 +14754,7 @@
         <v>21489</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" s="39"/>
       <c r="G65" s="39" t="s">
@@ -14747,10 +14762,10 @@
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J65" s="39" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="K65" s="39">
         <v>96</v>
@@ -14775,7 +14790,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="39" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C66" s="39" t="s">
         <v>27</v>
@@ -14784,7 +14799,7 @@
         <v>31826</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F66" s="39"/>
       <c r="G66" s="39" t="s">
@@ -14792,10 +14807,10 @@
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="39" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="J66" s="39" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="K66" s="39">
         <v>57</v>
@@ -14822,7 +14837,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>27</v>
@@ -14831,7 +14846,7 @@
         <v>22071</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="39" t="s">
@@ -14839,10 +14854,10 @@
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="39" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="J67" s="39" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="K67" s="39">
         <v>51</v>
@@ -14869,7 +14884,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C68" s="39" t="s">
         <v>34</v>
@@ -14878,18 +14893,18 @@
         <v>30564</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" s="39"/>
       <c r="G68" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J68" s="39" t="s">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="K68" s="39">
         <v>76</v>
@@ -14918,7 +14933,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="C69" s="39" t="s">
         <v>34</v>
@@ -14927,7 +14942,7 @@
         <v>28462</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="39" t="s">
@@ -14935,10 +14950,10 @@
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J69" s="39" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="K69" s="39">
         <v>63</v>
@@ -14967,7 +14982,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="C70" s="39" t="s">
         <v>34</v>
@@ -14978,14 +14993,14 @@
       <c r="E70" s="39"/>
       <c r="F70" s="39"/>
       <c r="G70" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="39" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="J70" s="39" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
       <c r="K70" s="39"/>
       <c r="L70" s="39"/>
@@ -15006,7 +15021,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>274</v>
+        <v>242</v>
       </c>
       <c r="C71" s="39" t="s">
         <v>34</v>
@@ -15017,14 +15032,14 @@
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
       <c r="G71" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="39" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J71" s="39" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="K71" s="39"/>
       <c r="L71" s="39"/>
@@ -15047,7 +15062,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C72" s="39" t="s">
         <v>34</v>
@@ -15056,7 +15071,7 @@
         <v>25267</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39" t="s">
@@ -15064,10 +15079,10 @@
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="J72" s="39" t="s">
-        <v>94</v>
+        <v>276</v>
       </c>
       <c r="K72" s="39">
         <v>90</v>
@@ -15094,14 +15109,14 @@
         <v>72</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="C73" s="39"/>
       <c r="D73" s="89">
         <v>34755</v>
       </c>
       <c r="E73" s="39" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="39" t="s">
@@ -15109,10 +15124,10 @@
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J73" s="39" t="s">
-        <v>100</v>
+        <v>277</v>
       </c>
       <c r="K73" s="39">
         <v>95</v>
@@ -15141,7 +15156,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C74" s="39" t="s">
         <v>34</v>
@@ -15150,7 +15165,7 @@
         <v>34380</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F74" s="39"/>
       <c r="G74" s="39" t="s">
@@ -15158,10 +15173,10 @@
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="39" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J74" s="39" t="s">
-        <v>103</v>
+        <v>278</v>
       </c>
       <c r="K74" s="39">
         <v>81</v>
@@ -15186,7 +15201,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="39" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>34</v>
@@ -15195,7 +15210,7 @@
         <v>18440</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F75" s="39"/>
       <c r="G75" s="39" t="s">
@@ -15203,10 +15218,10 @@
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J75" s="39" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="K75" s="39"/>
       <c r="L75" s="39"/>
@@ -15229,7 +15244,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C76" s="39" t="s">
         <v>34</v>
@@ -15240,14 +15255,14 @@
       <c r="E76" s="39"/>
       <c r="F76" s="39"/>
       <c r="G76" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="39" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J76" s="39" t="s">
-        <v>141</v>
+        <v>280</v>
       </c>
       <c r="K76" s="39"/>
       <c r="L76" s="39"/>
@@ -15268,7 +15283,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C77" s="39" t="s">
         <v>27</v>
@@ -15277,7 +15292,7 @@
         <v>30015</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F77" s="39"/>
       <c r="G77" s="39" t="s">
@@ -15285,10 +15300,10 @@
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="39" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="J77" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K77" s="39">
         <v>67</v>
@@ -15313,7 +15328,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C78" s="39" t="s">
         <v>27</v>
@@ -15322,7 +15337,7 @@
         <v>26479</v>
       </c>
       <c r="E78" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F78" s="39"/>
       <c r="G78" s="39" t="s">
@@ -15330,10 +15345,10 @@
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J78" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K78" s="39">
         <v>92</v>
@@ -15362,7 +15377,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="39" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C79" s="39" t="s">
         <v>27</v>
@@ -15371,7 +15386,7 @@
         <v>33224</v>
       </c>
       <c r="E79" s="39" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F79" s="39"/>
       <c r="G79" s="39" t="s">
@@ -15379,10 +15394,10 @@
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="39" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J79" s="39" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="K79" s="39">
         <v>54</v>
@@ -15407,7 +15422,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C80" s="39" t="s">
         <v>34</v>
@@ -15416,7 +15431,7 @@
         <v>22036</v>
       </c>
       <c r="E80" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F80" s="39"/>
       <c r="G80" s="39" t="s">
@@ -15424,10 +15439,10 @@
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="39" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="J80" s="39" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="K80" s="39">
         <v>60</v>
@@ -15452,7 +15467,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C81" s="39" t="s">
         <v>34</v>
@@ -15461,7 +15476,7 @@
         <v>29817</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F81" s="39"/>
       <c r="G81" s="39" t="s">
@@ -15469,10 +15484,10 @@
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J81" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K81" s="39">
         <v>82</v>
@@ -15501,7 +15516,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C82" s="39" t="s">
         <v>27</v>
@@ -15510,7 +15525,7 @@
         <v>34379</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F82" s="39"/>
       <c r="G82" s="39" t="s">
@@ -15518,10 +15533,10 @@
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J82" s="39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K82" s="39">
         <v>73</v>
@@ -15550,7 +15565,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="39" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C83" s="39" t="s">
         <v>27</v>
@@ -15559,7 +15574,7 @@
         <v>29883</v>
       </c>
       <c r="E83" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F83" s="39"/>
       <c r="G83" s="39" t="s">
@@ -15567,10 +15582,10 @@
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J83" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="J83" s="39" t="s">
-        <v>57</v>
       </c>
       <c r="K83" s="39">
         <v>80</v>
@@ -15599,7 +15614,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C84" s="39" t="s">
         <v>27</v>
@@ -15608,7 +15623,7 @@
         <v>17534</v>
       </c>
       <c r="E84" s="39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F84" s="39"/>
       <c r="G84" s="39" t="s">
@@ -15616,10 +15631,10 @@
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="39" t="s">
-        <v>265</v>
+        <v>233</v>
       </c>
       <c r="J84" s="39" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="K84" s="39">
         <v>86</v>
@@ -15644,7 +15659,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C85" s="39" t="s">
         <v>27</v>
@@ -15653,7 +15668,7 @@
         <v>16915</v>
       </c>
       <c r="E85" s="39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F85" s="39"/>
       <c r="G85" s="39" t="s">
@@ -15661,10 +15676,10 @@
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="39" t="s">
-        <v>266</v>
+        <v>234</v>
       </c>
       <c r="J85" s="39" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="K85" s="39">
         <v>74</v>
@@ -15689,7 +15704,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="C86" s="39" t="s">
         <v>34</v>
@@ -15698,7 +15713,7 @@
         <v>32687</v>
       </c>
       <c r="E86" s="39" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F86" s="39"/>
       <c r="G86" s="39" t="s">
@@ -15706,10 +15721,10 @@
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="39" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="J86" s="39" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
       <c r="K86" s="39">
         <v>60</v>
@@ -15738,7 +15753,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" s="39" t="s">
         <v>34</v>
@@ -15747,7 +15762,7 @@
         <v>19834</v>
       </c>
       <c r="E87" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F87" s="39"/>
       <c r="G87" s="39" t="s">
@@ -15755,10 +15770,10 @@
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="39" t="s">
-        <v>267</v>
+        <v>235</v>
       </c>
       <c r="J87" s="39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K87" s="39">
         <v>83</v>
@@ -15785,7 +15800,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C88" s="39" t="s">
         <v>34</v>
@@ -15796,14 +15811,14 @@
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
       <c r="G88" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="39" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="J88" s="39" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="K88" s="39"/>
       <c r="L88" s="39"/>
@@ -15826,7 +15841,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C89" s="39" t="s">
         <v>27</v>
@@ -15835,7 +15850,7 @@
         <v>29590</v>
       </c>
       <c r="E89" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F89" s="39"/>
       <c r="G89" s="39" t="s">
@@ -15846,7 +15861,7 @@
         <v>35</v>
       </c>
       <c r="J89" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K89" s="39">
         <v>53</v>
@@ -15875,7 +15890,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C90" s="39" t="s">
         <v>34</v>
@@ -15886,14 +15901,14 @@
       <c r="E90" s="39"/>
       <c r="F90" s="39"/>
       <c r="G90" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J90" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K90" s="39"/>
       <c r="L90" s="39">
@@ -15918,7 +15933,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C91" s="39" t="s">
         <v>27</v>
@@ -15927,7 +15942,7 @@
         <v>25737</v>
       </c>
       <c r="E91" s="39" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F91" s="39"/>
       <c r="G91" s="39" t="s">
@@ -15935,10 +15950,10 @@
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="39" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="J91" s="39" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="K91" s="39">
         <v>71</v>
@@ -15965,7 +15980,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="C92" s="39" t="s">
         <v>34</v>
@@ -15976,14 +15991,14 @@
       <c r="E92" s="39"/>
       <c r="F92" s="39"/>
       <c r="G92" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="39" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J92" s="39" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="K92" s="39"/>
       <c r="L92" s="39"/>
@@ -16006,7 +16021,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C93" s="39" t="s">
         <v>34</v>
@@ -16015,7 +16030,7 @@
         <v>27437</v>
       </c>
       <c r="E93" s="39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F93" s="39"/>
       <c r="G93" s="39" t="s">
@@ -16023,10 +16038,10 @@
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J93" s="39" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="K93" s="39">
         <v>77</v>
@@ -16055,7 +16070,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="C94" s="39" t="s">
         <v>34</v>
@@ -16066,14 +16081,14 @@
       <c r="E94" s="39"/>
       <c r="F94" s="39"/>
       <c r="G94" s="39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="39" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="J94" s="39" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="K94" s="39"/>
       <c r="L94" s="39"/>
@@ -16096,7 +16111,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="C95" s="39" t="s">
         <v>34</v>
@@ -16107,14 +16122,14 @@
       <c r="E95" s="39"/>
       <c r="F95" s="39"/>
       <c r="G95" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="39" t="s">
-        <v>270</v>
+        <v>238</v>
       </c>
       <c r="J95" s="39" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="K95" s="39"/>
       <c r="L95" s="39">
@@ -16139,7 +16154,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="39" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C96" s="39" t="s">
         <v>27</v>
@@ -16148,7 +16163,7 @@
         <v>33641</v>
       </c>
       <c r="E96" s="39" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F96" s="39"/>
       <c r="G96" s="39" t="s">
@@ -16156,10 +16171,10 @@
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="39" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="J96" s="39" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="K96" s="39">
         <v>72</v>
@@ -16184,7 +16199,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C97" s="39" t="s">
         <v>34</v>
@@ -16193,7 +16208,7 @@
         <v>22039</v>
       </c>
       <c r="E97" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F97" s="39"/>
       <c r="G97" s="39" t="s">
@@ -16201,10 +16216,10 @@
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="39" t="s">
-        <v>272</v>
+        <v>240</v>
       </c>
       <c r="J97" s="39" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="K97" s="39">
         <v>64</v>

--- a/data/testdata/all_cases.xlsx
+++ b/data/testdata/all_cases.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="800" documentId="8_{80136A59-A22F-4BFD-841B-785D5A5637AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D490BE-C711-452B-BCCE-A623E2E078F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{181804AA-FA84-4F41-B5A6-3D72BBD7180C}"/>
+    <workbookView xWindow="5670" yWindow="6435" windowWidth="21600" windowHeight="8760" xr2:uid="{181804AA-FA84-4F41-B5A6-3D72BBD7180C}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_CASES" sheetId="1" r:id="rId1"/>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A0D0B-AFBE-4BC1-B10F-8C3D3610350B}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W97" sqref="G1:W97"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11791,8 +11791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{765C2663-292D-459E-BD08-3A0142E458F4}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/testdata/all_cases.xlsx
+++ b/data/testdata/all_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uredu-my.sharepoint.com/personal/juan_russy_urosario_edu_co/Documents/initial_graph_repository/namegraph/data/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="800" documentId="8_{80136A59-A22F-4BFD-841B-785D5A5637AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32D490BE-C711-452B-BCCE-A623E2E078F1}"/>
+  <xr:revisionPtr revIDLastSave="823" documentId="8_{80136A59-A22F-4BFD-841B-785D5A5637AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C87239-DEE9-415E-B2A0-C4345834E5FF}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="6435" windowWidth="21600" windowHeight="8760" xr2:uid="{181804AA-FA84-4F41-B5A6-3D72BBD7180C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{181804AA-FA84-4F41-B5A6-3D72BBD7180C}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL_CASES" sheetId="1" r:id="rId1"/>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70A0D0B-AFBE-4BC1-B10F-8C3D3610350B}">
   <dimension ref="A1:W97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8050,7 +8050,7 @@
   <dimension ref="A1:Y47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
